--- a/va_facility_data_2025-02-20/Kingston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kingston%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kingston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kingston%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R98b1282b77c34421ab25df90a7361b7e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0f12356ba8e849098182d9e719117c57"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra31bee9434784e2d8cf3b9cbe1197731"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0506f0f0633b4f8fabf50728e14336d1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbfa041c731dd42f28ea31fe8e640e0d6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdf883e9845c14e7a91784706744fd537"/>
   </x:sheets>
 </x:workbook>
 </file>
